--- a/analyzes/MainAgenda.xlsx
+++ b/analyzes/MainAgenda.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0E38FE2D-C21C-4B87-8E78-04BCE0E24239}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C281A99A-1B2F-4E52-BD34-4DEBDD30384C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,30 +141,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>定义组件之间的接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计网站总体框架（MVC）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义流程算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计各个组件的关联和边界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>画网页界面原型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>定义类图，活动图，状态机图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>制作逻辑层</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,6 +190,18 @@
   </si>
   <si>
     <t>周末没有按时完成任务，调整设计阶段的安排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从类图中定义出流程图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画类图，决定网站的静态结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从流程图中定义详细流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -378,7 +370,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -404,7 +396,6 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="5" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="3" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - 着色 5" xfId="5" builtinId="47"/>
@@ -783,10 +774,10 @@
   <dimension ref="A1:AB180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U5" sqref="U5"/>
+      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -896,10 +887,9 @@
       </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="14"/>
-      <c r="R3" s="17" t="s">
+      <c r="V3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="14"/>
       <c r="Z3" s="18" t="s">
         <v>29</v>
       </c>
@@ -916,8 +906,7 @@
       <c r="L4" s="14"/>
       <c r="P4" s="21"/>
       <c r="Q4" s="14"/>
-      <c r="R4" s="10"/>
-      <c r="V4" s="14"/>
+      <c r="V4" s="10"/>
       <c r="W4" s="14"/>
       <c r="Z4" s="10"/>
       <c r="AB4" s="10"/>
@@ -931,8 +920,7 @@
       <c r="H5" s="10"/>
       <c r="P5" s="21"/>
       <c r="Q5" s="14"/>
-      <c r="R5" s="10"/>
-      <c r="V5" s="14"/>
+      <c r="V5" s="10"/>
       <c r="W5" s="14"/>
       <c r="Z5" s="10"/>
       <c r="AB5" s="10"/>
@@ -945,8 +933,7 @@
       <c r="H6" s="10"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="14"/>
-      <c r="R6" s="10"/>
-      <c r="V6" s="14"/>
+      <c r="V6" s="10"/>
       <c r="W6" s="14"/>
       <c r="Z6" s="10"/>
       <c r="AB6" s="10"/>
@@ -959,8 +946,7 @@
       <c r="H7" s="10"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="14"/>
-      <c r="R7" s="10"/>
-      <c r="V7" s="14"/>
+      <c r="V7" s="10"/>
       <c r="W7" s="14"/>
       <c r="Z7" s="10"/>
       <c r="AB7" s="10"/>
@@ -973,8 +959,7 @@
       <c r="H8" s="10"/>
       <c r="P8" s="21"/>
       <c r="Q8" s="14"/>
-      <c r="R8" s="10"/>
-      <c r="V8" s="14"/>
+      <c r="V8" s="10"/>
       <c r="W8" s="14"/>
       <c r="Z8" s="10"/>
       <c r="AB8" s="10"/>
@@ -987,8 +972,7 @@
       <c r="H9" s="10"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="14"/>
-      <c r="R9" s="10"/>
-      <c r="V9" s="14"/>
+      <c r="V9" s="10"/>
       <c r="W9" s="14"/>
       <c r="Z9" s="10"/>
       <c r="AB9" s="10"/>
@@ -1001,15 +985,14 @@
       <c r="H10" s="10"/>
       <c r="P10" s="21"/>
       <c r="Q10" s="14"/>
-      <c r="R10" s="10"/>
-      <c r="V10" s="14"/>
+      <c r="V10" s="10"/>
       <c r="W10" s="14"/>
       <c r="Z10" s="10"/>
       <c r="AB10" s="10"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F11" s="9"/>
       <c r="H11" s="10"/>
@@ -1017,8 +1000,7 @@
       <c r="K11" s="10"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="14"/>
-      <c r="R11" s="10"/>
-      <c r="V11" s="14"/>
+      <c r="V11" s="10"/>
       <c r="W11" s="14"/>
       <c r="Z11" s="10"/>
       <c r="AB11" s="10"/>
@@ -1033,8 +1015,7 @@
       <c r="K12" s="20"/>
       <c r="P12" s="21"/>
       <c r="Q12" s="14"/>
-      <c r="R12" s="10"/>
-      <c r="V12" s="14"/>
+      <c r="V12" s="10"/>
       <c r="W12" s="14"/>
       <c r="Z12" s="10"/>
       <c r="AB12" s="10"/>
@@ -1049,87 +1030,33 @@
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="22"/>
-      <c r="R13" s="10"/>
-      <c r="V13" s="14"/>
+      <c r="V13" s="10"/>
       <c r="W13" s="14"/>
       <c r="Z13" s="10"/>
       <c r="AB13" s="10"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="L14" s="8"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="Z14" s="10"/>
-      <c r="AB14" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="10"/>
-      <c r="L15" s="8"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Z15" s="10"/>
-      <c r="AB15" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="L16" s="8"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="Z16" s="10"/>
-      <c r="AB16" s="10"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="10"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="21"/>
-      <c r="S17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="Z17" s="10"/>
-      <c r="AB17" s="10"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="10"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="23"/>
-      <c r="S18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="Z18" s="10"/>
-      <c r="AB18" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -1138,11 +1065,10 @@
       <c r="H19" s="10"/>
       <c r="P19" s="21"/>
       <c r="Q19" s="14"/>
-      <c r="R19" s="10"/>
       <c r="S19" s="9"/>
       <c r="T19" s="15"/>
       <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
+      <c r="V19" s="10"/>
       <c r="W19" s="15"/>
       <c r="X19" s="15"/>
       <c r="Y19" s="15"/>
@@ -1151,15 +1077,14 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H20" s="10"/>
       <c r="N20" s="14"/>
       <c r="P20" s="21"/>
       <c r="Q20" s="14"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="8"/>
       <c r="T20" s="8"/>
+      <c r="V20" s="10"/>
       <c r="W20" s="14"/>
       <c r="X20" s="14"/>
       <c r="Z20" s="10"/>
@@ -1167,14 +1092,14 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H21" s="10"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="14"/>
-      <c r="R21" s="10"/>
+      <c r="S21" s="8"/>
       <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
+      <c r="V21" s="10"/>
       <c r="W21" s="16"/>
       <c r="X21" s="14"/>
       <c r="Z21" s="10"/>
@@ -1182,12 +1107,12 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H22" s="10"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="14"/>
-      <c r="R22" s="10"/>
+      <c r="V22" s="10"/>
       <c r="W22" s="16"/>
       <c r="X22" s="14"/>
       <c r="Z22" s="10"/>
@@ -1195,13 +1120,13 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H23" s="10"/>
       <c r="L23" s="14"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="14"/>
-      <c r="R23" s="10"/>
+      <c r="V23" s="10"/>
       <c r="W23" s="14"/>
       <c r="X23" s="16"/>
       <c r="Y23" s="8"/>
@@ -1210,12 +1135,12 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H24" s="10"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="14"/>
-      <c r="R24" s="10"/>
+      <c r="V24" s="10"/>
       <c r="W24" s="14"/>
       <c r="X24" s="14"/>
       <c r="Z24" s="11"/>
@@ -1228,7 +1153,7 @@
       <c r="H25" s="10"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="14"/>
-      <c r="R25" s="10"/>
+      <c r="V25" s="10"/>
       <c r="W25" s="14"/>
       <c r="X25" s="14"/>
       <c r="Z25" s="10"/>
@@ -2476,22 +2401,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2515,18 +2440,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
